--- a/orderTOPcandidatePolymers.xlsx
+++ b/orderTOPcandidatePolymers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FFB5C7-BB51-412B-88FF-92744632CC30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE4CE5C-4FDD-4567-8831-2945154AC007}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21390" yWindow="2850" windowWidth="13920" windowHeight="6285" activeTab="1" xr2:uid="{C74DB7A0-B3A2-4579-87BB-9DD1A019994B}"/>
+    <workbookView xWindow="21390" yWindow="2850" windowWidth="13920" windowHeight="6285" xr2:uid="{C74DB7A0-B3A2-4579-87BB-9DD1A019994B}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="2" r:id="rId1"/>
@@ -1392,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5821E598-8C98-4793-B118-86F581C387F3}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,7 +1451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="39" t="s">
         <v>13</v>
@@ -1472,7 +1472,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="16" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="45" t="s">
         <v>8</v>
@@ -1493,7 +1493,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="19" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="42" t="s">
         <v>14</v>
@@ -1621,7 +1621,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="26" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="41" t="s">
         <v>17</v>
@@ -1642,7 +1642,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="26" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="41" t="s">
         <v>15</v>
@@ -1663,7 +1663,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="42" t="s">
         <v>16</v>
@@ -1751,7 +1751,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>83</v>
@@ -2044,7 +2044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06F7061-1915-4993-B69A-8B2D1FB4CE8D}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>

--- a/orderTOPcandidatePolymers.xlsx
+++ b/orderTOPcandidatePolymers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oskat\OneDrive - Instituto Tecnologico y de Estudios Superiores de Monterrey\Documents\MNT_ITESM_Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE4CE5C-4FDD-4567-8831-2945154AC007}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B093F8A-A9BA-463B-A29B-963CD9BB97AC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21390" yWindow="2850" windowWidth="13920" windowHeight="6285" xr2:uid="{C74DB7A0-B3A2-4579-87BB-9DD1A019994B}"/>
+    <workbookView xWindow="8280" yWindow="0" windowWidth="20535" windowHeight="12900" xr2:uid="{C74DB7A0-B3A2-4579-87BB-9DD1A019994B}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="2" r:id="rId1"/>
@@ -683,7 +683,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -753,6 +753,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -770,7 +776,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -833,9 +839,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -912,9 +915,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -966,6 +966,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1392,8 +1401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5821E598-8C98-4793-B118-86F581C387F3}">
   <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,32 +1416,32 @@
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1453,7 +1462,7 @@
     </row>
     <row r="3" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1462,7 +1471,7 @@
       <c r="D3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="33" t="s">
         <v>101</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1474,7 +1483,7 @@
     </row>
     <row r="4" spans="1:7" s="16" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -1483,7 +1492,7 @@
       <c r="D4" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="33" t="s">
         <v>142</v>
       </c>
       <c r="F4" s="14" t="s">
@@ -1495,7 +1504,7 @@
     </row>
     <row r="5" spans="1:7" s="19" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="17" t="s">
@@ -1504,7 +1513,7 @@
       <c r="D5" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="34" t="s">
         <v>103</v>
       </c>
       <c r="F5" s="17" t="s">
@@ -1516,7 +1525,7 @@
     </row>
     <row r="6" spans="1:7" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="58" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -1525,7 +1534,7 @@
       <c r="D6" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>140</v>
       </c>
       <c r="F6" s="20" t="s">
@@ -1537,7 +1546,7 @@
     </row>
     <row r="7" spans="1:7" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -1546,7 +1555,7 @@
       <c r="D7" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>138</v>
       </c>
       <c r="F7" s="20" t="s">
@@ -1556,125 +1565,125 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="26" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="38" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="55" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="52" t="s">
+    <row r="9" spans="1:7" s="53" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
+      <c r="B9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="52" t="s">
+      <c r="F9" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="51" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="55" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
-      <c r="B10" s="52" t="s">
+    <row r="10" spans="1:7" s="53" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="56" t="s">
+      <c r="G10" s="54" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="26" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="25" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="26" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="25" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="40" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="24" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="19" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="74" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="34" t="s">
         <v>132</v>
       </c>
       <c r="F13" s="17" t="s">
@@ -1684,24 +1693,24 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="51" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47" t="s">
+    <row r="14" spans="1:7" s="50" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="48" t="s">
+      <c r="D14" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="49" t="s">
+      <c r="E14" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="50" t="s">
+      <c r="F14" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="49" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1709,13 +1718,13 @@
       <c r="A15" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="38" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="72" t="s">
         <v>129</v>
       </c>
       <c r="E15" s="12" t="s">
@@ -1732,7 +1741,7 @@
       <c r="A16" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>81</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1772,20 +1781,20 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="27" t="s">
+    <row r="18" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="39" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="38" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -1806,7 +1815,7 @@
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -1827,7 +1836,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="40" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="11" t="str">
@@ -1847,26 +1856,26 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="51" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47" t="s">
+    <row r="22" spans="1:7" s="50" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50" t="s">
+      <c r="D22" s="47"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="49" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="43" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="42" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -1875,7 +1884,7 @@
       <c r="D23" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E23" s="34" t="s">
+      <c r="E23" s="33" t="s">
         <v>122</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -1886,8 +1895,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="46" t="s">
+      <c r="A24" s="55"/>
+      <c r="B24" s="45" t="s">
         <v>116</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1896,7 +1905,7 @@
       <c r="D24" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="34" t="s">
+      <c r="E24" s="33" t="s">
         <v>118</v>
       </c>
       <c r="F24" s="6" t="s">
@@ -1907,8 +1916,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="59" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="57" t="s">
         <v>94</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1917,7 +1926,7 @@
       <c r="D25" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="34" t="s">
+      <c r="E25" s="33" t="s">
         <v>120</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -1927,19 +1936,19 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="27" t="s">
+    <row r="26" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="56" t="s">
         <v>146</v>
       </c>
     </row>
@@ -1963,16 +1972,16 @@
         <v>150</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="27" t="s">
+    <row r="48" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="30"/>
+      <c r="B48" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
@@ -2045,105 +2054,105 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="43.28515625" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="62"/>
+    <col min="1" max="2" width="43.28515625" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:3" s="59" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="59" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="62" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="60" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="61" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="61" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="70" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="71" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="71" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="70" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="60" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="60" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="60" t="s">
         <v>158</v>
       </c>
     </row>
